--- a/trunk/DOCS/Test Cases/TC02-EditCrisis.xlsx
+++ b/trunk/DOCS/Test Cases/TC02-EditCrisis.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Test Cases" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
   <si>
     <t>Intput Type</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Opt7</t>
   </si>
   <si>
-    <t>Opt8</t>
-  </si>
-  <si>
     <t>Crisis Name</t>
   </si>
   <si>
@@ -72,24 +69,6 @@
     <t>Selected</t>
   </si>
   <si>
-    <t>&lt;Not selected&gt;</t>
-  </si>
-  <si>
-    <t>Space</t>
-  </si>
-  <si>
-    <t>Letters</t>
-  </si>
-  <si>
-    <t>Numbers</t>
-  </si>
-  <si>
-    <t>Letters and Numbers</t>
-  </si>
-  <si>
-    <t>Explanation:</t>
-  </si>
-  <si>
     <t>TC ID</t>
   </si>
   <si>
@@ -102,119 +81,104 @@
     <t>Expected Output</t>
   </si>
   <si>
-    <t>O2:Abc</t>
-  </si>
-  <si>
-    <t>O2:Fire</t>
-  </si>
-  <si>
-    <t>O3:Abc 23</t>
-  </si>
-  <si>
     <t>Crisis is created succesfully</t>
   </si>
   <si>
     <t>O2:Ab</t>
   </si>
   <si>
-    <t>O1:Earthquake</t>
-  </si>
-  <si>
-    <t>O3:Abcdfg</t>
-  </si>
-  <si>
     <t>Error Message</t>
   </si>
   <si>
     <t>O1:Abc</t>
   </si>
   <si>
-    <t>O1:&lt;space&gt;</t>
-  </si>
-  <si>
-    <t>O3:3278648</t>
-  </si>
-  <si>
-    <t>O2:&lt;not selected&gt;</t>
-  </si>
-  <si>
-    <t>Testcase ID: First two numbers is the use case number, second two numbers are remaining test case number. Input Explanation: O1 means option 1 will be selected for this case. Abc is the example to use in test case.</t>
-  </si>
-  <si>
-    <t>TC02.01</t>
-  </si>
-  <si>
-    <t>TC02.02</t>
-  </si>
-  <si>
-    <t>TC02.03</t>
-  </si>
-  <si>
-    <t>TC02.04</t>
-  </si>
-  <si>
-    <t>TC02.05</t>
-  </si>
-  <si>
-    <t>Edit a crisis with 3 letters</t>
-  </si>
-  <si>
-    <t>Edit  a crisis with 2 letters</t>
-  </si>
-  <si>
-    <t>Edit  a crisis with out location name</t>
-  </si>
-  <si>
-    <t>Edit  a crisis with only numbers in location name</t>
-  </si>
-  <si>
-    <t>Edit  crisis without selecting Crisis Type</t>
-  </si>
-  <si>
-    <t>Save</t>
-  </si>
-  <si>
-    <t>Cancel</t>
-  </si>
-  <si>
-    <t>Select Cancel botton</t>
-  </si>
-  <si>
-    <t>Select Action on form</t>
-  </si>
-  <si>
-    <t>Select Save botton</t>
-  </si>
-  <si>
-    <t>O1:Cancel</t>
-  </si>
-  <si>
-    <t>O2:Save</t>
-  </si>
-  <si>
-    <t>Ignore all data and navigates to Crisis Management main page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">System validates and show notification of successful </t>
-  </si>
-  <si>
-    <t>TC02.06</t>
-  </si>
-  <si>
-    <t>TC02.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Location Name</t>
-  </si>
-  <si>
-    <t>Location Name</t>
+    <t>Explanation</t>
+  </si>
+  <si>
+    <t>Testcase ID: First two numbers is the use case number, second two numbers are remaining test case number. Input Explanation: O1 means option 1 will be selected for this case.Abc is the example to use in test case.</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Location </t>
+  </si>
+  <si>
+    <t>TC01.01</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>O1:Any Selection</t>
+  </si>
+  <si>
+    <t>O1:</t>
+  </si>
+  <si>
+    <t>TC01.02</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>TC01.04</t>
+  </si>
+  <si>
+    <t>O5:1ad</t>
+  </si>
+  <si>
+    <t>TC01.05</t>
+  </si>
+  <si>
+    <t>O6:-%&amp;</t>
+  </si>
+  <si>
+    <t>TC01.06</t>
+  </si>
+  <si>
+    <t>O7:Empty</t>
+  </si>
+  <si>
+    <t>Empty</t>
+  </si>
+  <si>
+    <t>Any selection</t>
+  </si>
+  <si>
+    <t>Crisis Location</t>
+  </si>
+  <si>
+    <t>Not selected</t>
+  </si>
+  <si>
+    <t>250 letters</t>
+  </si>
+  <si>
+    <t>Radius</t>
+  </si>
+  <si>
+    <t>Edit crisis with 3 letters name</t>
+  </si>
+  <si>
+    <t>Edit crisis with 2 letters name</t>
+  </si>
+  <si>
+    <t>Edit a crisis with numbers in name</t>
+  </si>
+  <si>
+    <t>Edit with special characters in the name</t>
+  </si>
+  <si>
+    <t>Edit crisis without crisis name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,12 +197,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -373,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -387,14 +345,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -408,7 +361,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -707,7 +666,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -746,111 +705,111 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:10" ht="16.5" customHeight="1">
       <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" ht="17.25" customHeight="1">
+      <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A3" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="B3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
       <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="36" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="36" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="5"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="A6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="12"/>
+      <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
       <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:10">
@@ -1059,260 +1018,246 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="45.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="21.28515625" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
     <col min="10" max="10" width="4.140625" customWidth="1"/>
-    <col min="11" max="11" width="60" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" customWidth="1"/>
+    <col min="12" max="12" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="44.25" customHeight="1">
-      <c r="A1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="8"/>
+    <row r="1" spans="1:12" ht="44.25" customHeight="1">
+      <c r="A1" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="17" t="s">
+      <c r="L1" s="8"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="C2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A3" s="13"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="13"/>
       <c r="D3" s="9" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
-      <c r="K3" s="18"/>
-    </row>
-    <row r="4" spans="1:11" ht="24.75" customHeight="1" thickTop="1">
+      <c r="K3" s="9"/>
+      <c r="L3" s="15"/>
+    </row>
+    <row r="4" spans="1:12" ht="30" customHeight="1" thickTop="1">
       <c r="A4" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="8"/>
+      <c r="L4" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="24" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="24" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="F5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="8"/>
+      <c r="L5" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="21.75" customHeight="1">
+      <c r="A6" s="8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A6" s="8" t="s">
-        <v>43</v>
-      </c>
       <c r="B6" s="8" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="E6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
-      <c r="K6" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="21.75" customHeight="1">
+      <c r="K6" s="8"/>
+      <c r="L6" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="24.75" customHeight="1">
       <c r="A7" s="8" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="24.75" customHeight="1">
+      <c r="K7" s="8"/>
+      <c r="L7" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>50</v>
+        <v>39</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>59</v>
-      </c>
+      <c r="L8" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="K9" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
